--- a/运营数据/青岛.xlsx
+++ b/运营数据/青岛.xlsx
@@ -363,7 +363,7 @@
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43673.729166666664</v>
+        <v>43673.72222222222</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,7 +371,7 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43674.729166666664</v>
+        <v>43674.63888888889</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
@@ -399,11 +399,11 @@
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>129.0</v>
+        <v>79.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已排车</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">

--- a/运营数据/青岛.xlsx
+++ b/运营数据/青岛.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190725150106767</t>
+          <t>GX20190819100144385</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,28 +350,28 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43671.62569444445</v>
+        <v>43696.41736111111</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>陈建</t>
+          <t>15806529916</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>13553019741</t>
+          <t>15806529916</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43673.72222222222</v>
+        <v>43696.427083333336</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
-          <t>370205199006037515</t>
+          <t/>
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43674.63888888889</v>
+        <v>43697.427083333336</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
@@ -380,12 +380,12 @@
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>青岛瑞合市北店</t>
+          <t>青岛瑞铂开发区店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>青岛瑞合市北店</t>
+          <t>青岛瑞铂开发区店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
@@ -395,15 +395,15 @@
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>鲁B76T9N</t>
+          <t>鲁B55Z0E</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>79.0</v>
+        <v>9.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">
@@ -420,77 +420,946 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
+          <t>GX20190819092854264</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>43696.39444444444</v>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>18766203207</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>18766203207</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>43696.729166666664</v>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>43697.729166666664</v>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J4" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K4" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L4" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N4" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O4" s="21" t="inlineStr">
+        <is>
+          <t>已下单</t>
+        </is>
+      </c>
+      <c r="P4" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q4" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>GX20190817151107256</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>深度试驾订单</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>43694.63263888889</v>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>康宏升</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>18561359235</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>43694.635416666664</v>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>43696.635416666664</v>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J5" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>CAMRY8 HEV</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>鲁B12N1T</t>
+        </is>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="O5" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P5" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q5" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>GX20190817100442030</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>深度试驾订单</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>43694.419444444444</v>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>15064259755</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>15064259755</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>43694.427083333336</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>43696.427083333336</v>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K6" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L6" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>鲁B77P8P</t>
+        </is>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="O6" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P6" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q6" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>GX20190816125417176</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>深度试驾订单</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>43693.5375</v>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>13969692370</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>13969692370</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>43693.729166666664</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>43695.729166666664</v>
+      </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K7" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L7" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>鲁B25P6W</t>
+        </is>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="O7" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P7" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q7" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>GX20190815125325851</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>深度试驾订单</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>43692.53680555556</v>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>18354277596</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>18354277596</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>43692.625</v>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>43694.625</v>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J8" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞铂开发区店</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞铂开发区店</t>
+        </is>
+      </c>
+      <c r="L8" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>鲁B55Z0E</t>
+        </is>
+      </c>
+      <c r="N8" s="20" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="O8" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P8" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q8" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810165826574</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>43687.70694444444</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>高永静</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>18562578511</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>43687.71527777778</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>43695.71527777778</v>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K9" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L9" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M9" s="19" t="inlineStr">
+        <is>
+          <t>鲁B62P0W</t>
+        </is>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>1492.0</v>
+      </c>
+      <c r="O9" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P9" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q9" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810161507922</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>43687.677083333336</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>张怡</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>15066252012</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>43687.680555555555</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>43691.680555555555</v>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J10" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L10" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M10" s="19" t="inlineStr">
+        <is>
+          <t>鲁B76T9N</t>
+        </is>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="O10" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P10" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q10" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809145854356</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>43686.623611111114</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>陈建</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>13553019741</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>43686.708333333336</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>370205199006037515</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>43687.708333333336</v>
+      </c>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J11" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K11" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L11" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M11" s="19" t="inlineStr">
+        <is>
+          <t>鲁B76T9N</t>
+        </is>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="O11" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P11" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q11" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806171125252</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>43683.71597222222</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>康宏升</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>18561359235</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>43683.72222222222</v>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>43687.72222222222</v>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J12" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K12" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L12" s="18" t="inlineStr">
+        <is>
+          <t>CAMRY8 HEV</t>
+        </is>
+      </c>
+      <c r="M12" s="19" t="inlineStr">
+        <is>
+          <t>鲁B12N1T</t>
+        </is>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>1312.0</v>
+      </c>
+      <c r="O12" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P12" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q12" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806170122737</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>43683.709027777775</v>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>康宏升</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
+        <is>
+          <t>18561359235</t>
+        </is>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>43683.708333333336</v>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>43684.708333333336</v>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J13" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K13" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L13" s="18" t="inlineStr">
+        <is>
+          <t>CAMRY8 HEV</t>
+        </is>
+      </c>
+      <c r="M13" s="19" t="inlineStr">
+        <is>
+          <t>鲁B12N1T</t>
+        </is>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="O13" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P13" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q13" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>GX20190725150106767</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>43671.62569444445</v>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>陈建</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>13553019741</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>43673.72222222222</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>370205199006037515</t>
+        </is>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>43674.63888888889</v>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J14" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L14" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>鲁B76T9N</t>
+        </is>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="O14" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P14" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q14" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
           <t>GX20190722171349110</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>短租</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C15" s="9" t="n">
         <v>43668.717361111114</v>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>陈建</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E15" s="11" t="inlineStr">
         <is>
           <t>13553019741</t>
         </is>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F15" s="12" t="n">
         <v>43669.458333333336</v>
       </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H4" s="14" t="n">
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="14" t="n">
         <v>43670.458333333336</v>
       </c>
-      <c r="I4" s="15" t="inlineStr">
+      <c r="I15" s="15" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="J4" s="16" t="inlineStr">
-        <is>
-          <t>青岛瑞合市北店</t>
-        </is>
-      </c>
-      <c r="K4" s="17" t="inlineStr">
-        <is>
-          <t>青岛瑞合市北店</t>
-        </is>
-      </c>
-      <c r="L4" s="18" t="inlineStr">
+      <c r="J15" s="16" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>青岛瑞合市北店</t>
+        </is>
+      </c>
+      <c r="L15" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M4" s="19" t="inlineStr">
+      <c r="M15" s="19" t="inlineStr">
         <is>
           <t>鲁B76T9N</t>
         </is>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N15" s="20" t="n">
         <v>159.0</v>
       </c>
-      <c r="O4" s="21" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P4" s="22" t="inlineStr">
+      <c r="P15" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q4" s="23" t="inlineStr">
+      <c r="Q15" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
